--- a/biology/Médecine/1532_en_santé_et_médecine/1532_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1532_en_santé_et_médecine/1532_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1532_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1532_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1532 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1532_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1532_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Automne : Vlad VII Înecatul, prince de Valachie, « gravement pris de boisson, se noie dans les eaux paresseuses de la Dâmbovița, près du village de Popești, au judet d'Ilfov[1] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Automne : Vlad VII Înecatul, prince de Valachie, « gravement pris de boisson, se noie dans les eaux paresseuses de la Dâmbovița, près du village de Popești, au judet d'Ilfov ».</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1532_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1532_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,9 +555,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Rabelais fait imprimer chez Gryphe, à Lyon, le deuxième tome des « Lettres médicales » (Epistolarium medicinalium libri duodeviginti) du médecin, botaniste et humaniste italien Giovanni Manardo (1462-1536[2]).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Rabelais fait imprimer chez Gryphe, à Lyon, le deuxième tome des « Lettres médicales » (Epistolarium medicinalium libri duodeviginti) du médecin, botaniste et humaniste italien Giovanni Manardo (1462-1536).</t>
         </is>
       </c>
     </row>
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1532_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1532_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,12 +587,14 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Vers 1532 :
-Agustín Farfán (mort en 1604), médecin, prêtre et missionnaire augustin espagnol, médecin de Philippe II d'Espagne et membre de l'université royale et pontificale du Mexique[3].
-Thomas Penny (mort vers 1588), médecin et naturaliste anglais[4].
-Pierre Pigray (mort en 1613), médecin des rois de France Henri IV et Louis XIII[5],[6].</t>
+Agustín Farfán (mort en 1604), médecin, prêtre et missionnaire augustin espagnol, médecin de Philippe II d'Espagne et membre de l'université royale et pontificale du Mexique.
+Thomas Penny (mort vers 1588), médecin et naturaliste anglais.
+Pierre Pigray (mort en 1613), médecin des rois de France Henri IV et Louis XIII,.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1532_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1532_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,13 +622,15 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2 décembre[7] : Guillaume Cop (né vers 1460), humaniste, médecin des rois de France Louis XII et François Ier[8],[9].
-Marc-Antoine Zimara (né vers 1460), philosophe et médecin italien, professeur à Padoue et à Naples, commentateur d'Aristote et d'Averroès[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 décembre : Guillaume Cop (né vers 1460), humaniste, médecin des rois de France Louis XII et François Ier,.
+Marc-Antoine Zimara (né vers 1460), philosophe et médecin italien, professeur à Padoue et à Naples, commentateur d'Aristote et d'Averroès.
 Vers 1532 :
-Laurent Fries (né vers 1485), médecin, astrologue, géographe et cartographe alsacien[11].
-Joseph Grünpeck (né en 1473), humaniste allemand, auteur d'ouvrages traitant de médecine, dont deux sur la syphilis en 1496 et 1503[12],[13].
+Laurent Fries (né vers 1485), médecin, astrologue, géographe et cartographe alsacien.
+Joseph Grünpeck (né en 1473), humaniste allemand, auteur d'ouvrages traitant de médecine, dont deux sur la syphilis en 1496 et 1503,.
 </t>
         </is>
       </c>
